--- a/Registre-des-terrains-contamines-Valdor.xlsx
+++ b/Registre-des-terrains-contamines-Valdor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,29 +478,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>90492539</t>
+          <t>55326326</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.5751271636</v>
+        <v>48.1158666667</v>
       </c>
       <c r="C2" t="n">
-        <v>-73.6992551634</v>
+        <v>-77.77317499999999</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1060, boulevard des Laurentides (Pont-Viau)
-Laval (Québec)</t>
+          <t>1, rue des Panneaux
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>H7G 2W1</t>
+          <t>J9P 7A1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -515,34 +515,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>54873484</t>
+          <t>90531229</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.6167451627</v>
+        <v>48.086093</v>
       </c>
       <c r="C3" t="n">
-        <v>-71.93235663550001</v>
+        <v>-77.824212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7472, route Marie-Victorin
-Lotbinière (Québec)</t>
+          <t>1000, boul. Barrette
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>G0S 1S0</t>
+          <t>J9P 4P3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>330 - Lotbinière, 12 - Chaudière-Appalaches</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -552,34 +552,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>90317181</t>
+          <t>X2050458</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.0237166372</v>
+        <v>48.1042361111</v>
       </c>
       <c r="C4" t="n">
-        <v>-66.82094892040001</v>
+        <v>-77.79413333330001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>175, boulevard du Portage-des-Mousses
-Port-Cartier (Québec)</t>
+          <t>1075, 3e Avenue Ouest
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G5B 2V9</t>
+          <t>J9P 5B7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>971 - Sept-Rivières, 09 - Côte-Nord</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -589,34 +589,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>X2010985</t>
+          <t>X0800591</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.5239534246</v>
+        <v>48.1030583333</v>
       </c>
       <c r="C5" t="n">
-        <v>-73.8819812844</v>
+        <v>-77.80861666669999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8, rue Les Pins
-Laval-sur-le-Lacl (Québec)</t>
+          <t>1111, rue de l'Escale
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>H7R 1C7</t>
+          <t>J9P 4G7</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -626,34 +626,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>X1300162</t>
+          <t>X2003279</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.6132171359</v>
+        <v>48.1108321171</v>
       </c>
       <c r="C6" t="n">
-        <v>-73.6703341866</v>
+        <v>-77.79101478800001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3960 boul. Leman
-Laval</t>
+          <t>1141, rue Des Manufacturiers
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>H7L 5C1</t>
+          <t>J9P 4P8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -663,29 +663,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>90339920</t>
+          <t>X0800957</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.5687181961</v>
+        <v>48.1066666667</v>
       </c>
       <c r="C7" t="n">
-        <v>-73.5204795431</v>
+        <v>-77.7886666667</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6010, rue Notre-Dame Est
-Montréal (Québec)</t>
+          <t>1163, rue des Manufacturiers
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>H1N 2E2</t>
+          <t>J9P 5B7</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -700,72 +700,71 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>55583132</t>
+          <t>X2059220</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.6164702779</v>
+        <v>48.1119444444</v>
       </c>
       <c r="C8" t="n">
-        <v>-72.6830234297</v>
+        <v>-77.79638888890001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100, Division Laurentide
-1e Rue (Grand-Mère)
-Shawinigan (Québec)</t>
+          <t>1185, rue des Foreurs
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>G9T 7J1</t>
+          <t>J9X 6X9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>360 - Ville de Shawinigan, 04 - Mauricie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sol et eau souterraine</t>
+          <t>Sol</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>X2005016</t>
+          <t>90411067</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.70605565730001</v>
+        <v>48.1055611111</v>
       </c>
       <c r="C9" t="n">
-        <v>-73.42064724560001</v>
+        <v>-77.7888944444</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3171, route Marie-Victorin
-Varennes (Québec)</t>
+          <t>1275, 6e Rue
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>J3X 1P7</t>
+          <t>J9P 5B7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>590 - Marguerite-D'Youville, 16 - Montérégie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -775,25 +774,34 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>X2196327</t>
+          <t>X2159243</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.4217592508</v>
+        <v>48.1064027778</v>
       </c>
       <c r="C10" t="n">
-        <v>-72.74017371879999</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+        <v>-77.78920000000001</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1322, rue Turcotte
+Val-d'Or (Québec)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>J9P 3X6</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>470 - La Haute-Yamaska, 05 - Estrie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -803,34 +811,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>90519091</t>
+          <t>X2003277</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.5493683635</v>
+        <v>48.1061416667</v>
       </c>
       <c r="C11" t="n">
-        <v>-73.56648377240001</v>
+        <v>-77.7886111111</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4675, boulevard Saint-Michel
-Montréal (Québec)</t>
+          <t>1329, 6e Rue
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>H1Y 3P6</t>
+          <t>J9P 5B7</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -840,29 +848,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>X2118541</t>
+          <t>X2079855</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45.5333145408</v>
+        <v>48.1065</v>
       </c>
       <c r="C12" t="n">
-        <v>-73.5453695603</v>
+        <v>-77.788</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1455, rue Bercy
-Montréal (Québec)</t>
+          <t>1365, 6e Rue
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>H2K 2V1</t>
+          <t>J9P 3X4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -871,40 +879,40 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>X1300568</t>
+          <t>X2097152</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.5490534779</v>
+        <v>48.1069887104</v>
       </c>
       <c r="C13" t="n">
-        <v>-73.7561904394</v>
+        <v>-77.7877298805</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3874, chemin du Souvenir
-Laval (Québec)</t>
+          <t>1373, 6e Rue
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>H7V 1Y4</t>
+          <t>J9P 3X4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -914,34 +922,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>X2096227</t>
+          <t>X2092999</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.5861494024</v>
+        <v>48.1075</v>
       </c>
       <c r="C14" t="n">
-        <v>-73.5299986874</v>
+        <v>-77.7873111111</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7201, rue Georges-Villeneuve
-Montréal (Québec)</t>
+          <t>1401, 6e Rue
+Val-d'Or (Qc)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>H1N 0B8</t>
+          <t>J9P 3X4</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -951,29 +959,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>X2017928</t>
+          <t>X0800914</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45.5887373856</v>
+        <v>48.108683</v>
       </c>
       <c r="C15" t="n">
-        <v>-73.71934617810001</v>
+        <v>-77.785223</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>160, - 164, rue de la Station
-Laval (Québec)</t>
+          <t>1519, 7e Rue
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>H7M 3H7</t>
+          <t>J9P 3N3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -988,34 +996,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X2162762</t>
+          <t>X2094206</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.2322996178</v>
+        <v>48.0997222222</v>
       </c>
       <c r="C16" t="n">
-        <v>-73.6741783173</v>
+        <v>-77.8147222222</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1767, rang Saint-Antoine
-Saint-Rémi (Québec)</t>
+          <t>1660, 3e Avenue
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>J0L 2L0</t>
+          <t>J9P 1W1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>680 - Les Jardins-de-Napierville, 16 - Montérégie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1025,29 +1033,30 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>X2184604</t>
+          <t>X2107539</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.5292584234</v>
+        <v>48.0985</v>
       </c>
       <c r="C17" t="n">
-        <v>-73.59537296980001</v>
+        <v>-77.8172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5524, rue Saint-Denis
-Montréal (Québec)</t>
+          <t xml:space="preserve">1697, 3e Avenue Ouest
+Val-d'Or (Québec)
+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>H2J 2M5</t>
+          <t>J9P 1R5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1062,29 +1071,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>90481680</t>
+          <t>X2068238</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>46.0128769214</v>
+        <v>48.0902777778</v>
       </c>
       <c r="C18" t="n">
-        <v>-73.473064941</v>
+        <v>-77.81583333330001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>925, Village St-Pierre Sud
-Joliette (Québec)</t>
+          <t>1745, rue Le Marquis
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J6E 3Z1</t>
+          <t>J9P 4T8</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>610 - Joliette, 14 - Lanaudière</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1099,29 +1108,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>90138017</t>
+          <t>X0800962</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.48287942930001</v>
+        <v>48.0983388889</v>
       </c>
       <c r="C19" t="n">
-        <v>-75.5749750457</v>
+        <v>-77.8536444444</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1213, boulevard Hurtubise Est
-Gatineau (Québec)</t>
+          <t>1936, 3e Avenue Ouest
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J8P 7C2</t>
+          <t>J9P 4N7</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>810 - Ville de Gatineau, 07 - Outaouais</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1136,34 +1145,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>X2140763</t>
+          <t>X0800814</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.0143472591</v>
+        <v>48.095278</v>
       </c>
       <c r="C20" t="n">
-        <v>-70.94666418599999</v>
+        <v>-77.863056</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9300, boulevard Sainte-Anne
-Sainte-Anne-de-Beaupré (Québec)</t>
+          <t>1955, 3e Avenue Ouest
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G0A 3C0</t>
+          <t>J9P 5B7</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>210 - La Côte-de-Beaupré, 03 - Capitale-Nationale</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sol et eau souterraine</t>
+          <t>Sol</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1173,25 +1182,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>X2135466</t>
+          <t>X0800885</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>47.4487756244</v>
+        <v>48.0880611111</v>
       </c>
       <c r="C21" t="n">
-        <v>-70.5203509719</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+        <v>-77.88808611109999</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>201, rue des Buissons
+Val-d'Or (Québec)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>J9P 4N7</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>160 - Charlevoix, 03 - Capitale-Nationale</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1201,20 +1219,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>X2154009</t>
+          <t>X0000009</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.0232514567</v>
+        <v>48.056197</v>
       </c>
       <c r="C22" t="n">
-        <v>-73.1322793258</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+        <v>-77.78682499999999</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>250, rue de la Météo
+Val-d'Or (Québec)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>J9P 0G3</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>530 - Pierre-De Saurel, 16 - Montérégie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1229,29 +1256,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>X2148447</t>
+          <t>52486008</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.0862955595</v>
+        <v>48.09387599999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-73.1729562993</v>
+        <v>-77.756987</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>201, rue Jacques-Cartier
-Berthierville (Québec)</t>
+          <t>300, 3e Avenue Est
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>J0K 1A0</t>
+          <t>J9P 4N8</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>520 - D'Autray, 14 - Lanaudière</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1266,25 +1293,34 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>X2195183</t>
+          <t>X2022554</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.48283883240001</v>
+        <v>48.1221111111</v>
       </c>
       <c r="C24" t="n">
-        <v>-71.66080815939999</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+        <v>-77.78088888889999</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3146, 7e Rue 
+Val-d'Or (Québec)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>J9P 5A3</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>410 - Le Haut-Saint-François, 05 - Estrie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sol et eau souterraine</t>
+          <t>Indéterminé</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1294,29 +1330,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>52732971</t>
+          <t>X0800888</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.80559778200001</v>
+        <v>48.097734</v>
       </c>
       <c r="C25" t="n">
-        <v>-73.57215254740001</v>
+        <v>-77.454127</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LG4
-Baie-James (Québec)</t>
+          <t>335, route 117
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>J0Y 3E0</t>
+          <t>J9P 7C4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>991 - Jamésie (terr. conventionné), 10 - Nord-du-Québec</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1325,40 +1361,40 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>X2152642</t>
+          <t>X2058174</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>45.8447663046</v>
+        <v>48.1303317576</v>
       </c>
       <c r="C26" t="n">
-        <v>-71.1463293947</v>
+        <v>-77.8286481522</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0, Route 263
-Lambton (Québec)</t>
+          <t>3360, chemin Sullivan
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>G0M 1H0</t>
+          <t>J9P 0B8</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>300 - Le Granit, 05 - Estrie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Eau souterraine</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1368,20 +1404,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>X2183269</t>
+          <t>X2004380</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>45.3946632537</v>
+        <v>45.6880361111</v>
       </c>
       <c r="C27" t="n">
-        <v>-71.8921692439</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>-73.25403611110001</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>341, rue Val d'Or
+Saint-Marc-sur-Richelieu (Québec)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>J0L 2E0</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>430 - Ville de Sherbrooke, 05 - Estrie</t>
+          <t>570 - La Vallée-du-Richelieu, 16 - Montérégie</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1396,34 +1441,34 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>55486120</t>
+          <t>X2091449</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.02900890900001</v>
+        <v>48.1052777778</v>
       </c>
       <c r="C28" t="n">
-        <v>-72.66286678829999</v>
+        <v>-77.7775</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90, rue Thibault Sud
-Abercorn (Québec)</t>
+          <t>425, 13e Rue
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>J0E 1B0</t>
+          <t>J9P 4P5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>460 - Brome-Missisquoi, 05 - Estrie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sol et eau souterraine</t>
+          <t>Sol</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1433,29 +1478,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11630159</t>
+          <t>X2104903</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.2569296369</v>
+        <v>48.06944444440001</v>
       </c>
       <c r="C29" t="n">
-        <v>-72.93743917480001</v>
+        <v>-77.38</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>700, boulevard Saint-Laurent Ouest
-Louiseville (Québec)</t>
+          <t>460, Route 117
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>J5V 1K7</t>
+          <t>J9P 7C3</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>510 - Maskinongé, 04 - Mauricie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1470,34 +1515,34 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>90506379</t>
+          <t>X2096333</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46.8216260634</v>
+        <v>48.1013123744</v>
       </c>
       <c r="C30" t="n">
-        <v>-71.27892195459999</v>
+        <v>-77.78098799990001</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>915, avenue Godin
-Québec (Québec)</t>
+          <t>525, avenue Centrale
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>G1M 2X2</t>
+          <t>J9P 1P6</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>230 - Ville de Québec, 03 - Capitale-Nationale</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Eau souterraine</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1507,20 +1552,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>X2080193</t>
+          <t>55044267</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.5493071548</v>
+        <v>48.1003718217</v>
       </c>
       <c r="C31" t="n">
-        <v>-73.7571255925</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+        <v>-77.49513587209999</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5999, 3e Avenue Est
+Val-d'Or (Québec)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>J9P 6V2</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1529,77 +1583,77 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11352739</t>
+          <t>X0800901</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45.4699737506</v>
+        <v>48.171367</v>
       </c>
       <c r="C32" t="n">
-        <v>-73.8015274884</v>
+        <v>-77.655804</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>86, boulevard Hymus
-Pointe-Claire (Québec)</t>
+          <t>630, route des Campagnards
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>H9R 1E4</t>
+          <t>J9P 0C2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Indéterminé</t>
+          <t>Sol</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>X0600294</t>
+          <t>X2069792</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.6023755345</v>
+        <v>48.101775</v>
       </c>
       <c r="C33" t="n">
-        <v>-73.6151124535</v>
+        <v>-77.78612222220001</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10833, avenue Moisan
-Montréal (Québec)</t>
+          <t>725, 3e Avenue Ouest
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>H1G 4N6</t>
+          <t>J9P 1S8</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Sol et eau souterraine</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1609,24 +1663,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>X2000638</t>
+          <t>X2069576</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.8588040623</v>
+        <v>48.1038787938</v>
       </c>
       <c r="C34" t="n">
-        <v>-63.2787418104</v>
+        <v>-77.79018127880001</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Lac Éon</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>912, 3e Avenue
+Val-d'Or (Québec)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>J9P 1T3</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>981 - Minganie, 09 - Côte-Nord</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1641,29 +1700,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>X2199915</t>
+          <t>X2124507</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.4100504088</v>
+        <v>48.1040477617</v>
       </c>
       <c r="C35" t="n">
-        <v>-71.8480209689</v>
+        <v>-77.79063376500001</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1837, rue King Est
-Sherbrooke (Québec)</t>
+          <t>932, 3e Avenue
+Val-d'Or (Québec)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>J1G 5G7</t>
+          <t>J9P 1T3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>430 - Ville de Sherbrooke, 05 - Estrie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1678,20 +1737,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>X2196987</t>
+          <t>X0800950</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>45.640319269</v>
+        <v>48.113343</v>
       </c>
       <c r="C36" t="n">
-        <v>-72.5603728695</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+        <v>-77.7954</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>rue de l'Hydro
+Val-d'Or</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>J9P 4P7</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>480 - Acton, 16 - Montérégie</t>
+          <t>890 - La Vallée-de-l'Or, 08 - Abitibi-Témiscamingue</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1700,1044 +1768,6 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>X2190159</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>45.289093012</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-72.9592484315</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>460 - Brome-Missisquoi, 05 - Estrie</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>X2014814</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>45.55429014760001</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-71.9952759016</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>101, rue Principale Sud
-Val-Joli (Québec)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>J1S 0H2</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>420 - Le Val-Saint-François, 05 - Estrie</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>51666782</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>45.56806623830001</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-73.5276882758</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>5781, rue Notre-Dame Est
-Montréal (Québec)</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>H1N 2C6</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>X2083655</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>45.5798804421</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-73.7267494342</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>890, avenue Munck
-Laval (Québec)</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>H7S 1B1</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>X2101972</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>45.251292686</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-74.15028525650001</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>550, rue Victoria
-Salaberry-de-Valleyfield (Québec)</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>J6T 1B8</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>700 - Beauharnois-Salaberry, 16 - Montérégie</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>90344730</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>50.2089988162</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-66.3058449238</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>rue des Pionniers
-Sept-Îles</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>D1D 1D1</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>971 - Sept-Rivières, 09 - Côte-Nord</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>X1700183</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>45.9182284636</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-72.4423088997</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2010, route 122
-Saint-Cyrille-de-Wendover (Québec)</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>J1Z 1B8</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>490 - Drummond, 17 - Centre-du-Québec</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>53052544</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>45.6202200774</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-73.3932172717</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1760, montée Sainte-Julie (Lionel-Boulet)
-Varennes (Québec)</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>J3X 1S1</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>590 - Marguerite-D'Youville, 16 - Montérégie</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>53125399</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>45.5226812152</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-73.66186365819999</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>380, rue Deslauriers
-Saint-Laurent (Québec)</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>H4N 1V8</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Eau souterraine</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>90494584</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45.5808065465</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-73.7849608256</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>509, rue Lindbergh
-Laval (Québec)</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>H7P 2N8</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>X2101980</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>45.5270534038</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-73.6883644369</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>845, rue Poirier
-Montréal (Québec)</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>H4L 1G4</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>25015595</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>45.52424378120001</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-73.5478580198</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1295, rue de Lorimier
-Montréal (Québec)</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>H2K 3V9</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>X2004663</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>45.9413701823</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-71.9883496856</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>173, rue Saint-Louis
-Warwick (Québec)</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>J0A 1M0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>390 - Arthabaska, 17 - Centre-du-Québec</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>X2136427</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>45.4553508799</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-73.8243760661</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>X2158588</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>45.3846007399</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-75.80579067069999</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>810 - Ville de Gatineau, 07 - Outaouais</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>90552183</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>45.52781735040001</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-73.5618061688</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2246, rue Cartier
-Montréal (Québec)</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>H2K 4E8</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>X2003910</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>45.5029093201</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-72.24645254959999</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>158, chemin Brompton
-Racine (Québec)</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>J0E 1Y0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>420 - Le Val-Saint-François, 05 - Estrie</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>X2178811</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>46.8172244529</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-71.2508734212</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>230 - Ville de Québec, 03 - Capitale-Nationale</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>53108726</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>46.7678872547</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-71.29119472880001</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1170, route de l'Église
-Québec (Québec)</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>G1V 3W7</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>230 - Ville de Québec, 03 - Capitale-Nationale</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>X2197507</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>45.392471947</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-71.9589895041</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>430 - Ville de Sherbrooke, 05 - Estrie</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>X2004177</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>48.4842910138</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-71.77655466829999</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>930 - Lac-Saint-Jean-Est, 02 - Saguenay--Lac-Saint-Jean</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>X2140036</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>45.4760341657</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-73.59796244510001</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>X2013935</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>45.5527449902</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-73.54193249980001</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2111, avenue de LaSalle
-Montréal (Québec)</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>H1V 2K6</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>54561170</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>45.4625527096</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-73.7004681583</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3000, boulevard Jean-Baptiste-Deschamps
-Montréal (Québec)</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>H8T 1E2</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>X2177306</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>48.8156364753</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-64.57082832670001</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>607, boulevard de York Ouest
-Gaspé (Québec)</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>G4X 2M5</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>030 - La Côte-de-Gaspé, 11 - Gaspésie--Îles-de-la-Madeleine</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Eau souterraine</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>54917067</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>45.580752555</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-73.7217698819</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2075, avenue Francis-Hughes
-Laval (Québec)</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>H7S 1N5</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>650 - Ville de Laval, 13 - Laval</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>55608053</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>46.6832102589</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-73.9399835066</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>621, boul. St-Georges
-Saint-Michel-des-Saints (Québec)</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>J0K 3B0</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>620 - Matawinie, 14 - Lanaudière</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>90453010</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>45.6065759168</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-73.5557045425</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>9980, rue Notre-Dame Est
-Montréal-Est (Québec)</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>H1L 3R4</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>X2134482</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>45.465878633</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-73.584319674</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Indéterminé</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>X2022896</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>45.644557429</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-73.555834268</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>9685 boul. Henri-Bourassa Est
-Montréal (Québec)</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>H1E 5W9</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>660 - Ville de Montréal, 06 - Montréal</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Sol et eau souterraine</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Registre-des-terrains-contamines-Valdor.xlsx
+++ b/Registre-des-terrains-contamines-Valdor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,51 @@
           <t>NB_FICHES</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>QUAL_SOLS_AV</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>QUAL_SOLS</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CONTAM_SOL_EXTRA</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CONTAM_EAU_EXTRA</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_CRE_MAJ</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>FICHES_URLS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>NO_SEQ_DOSSIER</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ETAT_REHAB</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>IS_DECONTAMINATED</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -511,6 +556,42 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Plage B-C</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Produits pétroliers*,
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2001-10-30</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1569']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Terminée en 2001</t>
+        </is>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -548,6 +629,41 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Plage B-C</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2005-02-22</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=6476']</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>6476</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Terminée en 2001</t>
+        </is>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -585,6 +701,53 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Benzène,
+Éthylbenzène,
+Hydrocarbures pétroliers C10 à C50,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=6261']</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>6261</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Initiée</t>
+        </is>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -622,6 +785,53 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Plage B-C</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Hydrocarbures légers*,
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Benzène,
+Éthylbenzène,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2012-04-04</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1546']</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Terminée en 1996</t>
+        </is>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -659,6 +869,41 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Plage B-C</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2008-07-09</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1559']</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Terminée en 1995</t>
+        </is>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -696,6 +941,41 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Plage B-C</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2000-12-06</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1561']</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1561</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Terminée en 1995</t>
+        </is>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -733,6 +1013,45 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>&lt;= B</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2005-04-12</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=6310']</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>6310</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Terminée en 2004</t>
+        </is>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -770,6 +1089,56 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Plage B-C</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Benzène,
+Éthylbenzène,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2018-10-03</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1526']</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1526</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Terminée en 2017</t>
+        </is>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -807,6 +1176,52 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Hydrocarbures aromatiques monocycliques*,
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=11535']</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>11535</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Initiée</t>
+        </is>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -844,6 +1259,47 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Hydrocarbures aromatiques monocycliques * (pot),
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Hydrocarbures aromatiques monocycliques*,
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2017-12-04</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1544']</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Initiée</t>
+        </is>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -881,6 +1337,61 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Plage B-C</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Benzène (seringue),
+Éthylbenzène (pot),
+Éthylbenzène (seringue),
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot),
+Xylènes (o,m,p) (seringue)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Benzène,
+Éthylbenzène,
+Hydrocarbures aromatiques monocycliques*,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2021-07-21</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=9185']</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>9185</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Terminée en 2017</t>
+        </is>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -918,6 +1429,55 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Huiles et graisses totales*,
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Benzène,
+Éthylbenzène,
+Huiles et graisses totales*,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2017-12-04</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=8164']</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>8164</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Initiée</t>
+        </is>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -955,6 +1515,50 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Hydrocarbures aromatiques monocycliques * (pot),
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Benzène,
+Éthylbenzène,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2018-09-13</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=10684']</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>10684</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Non débutée</t>
+        </is>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -992,6 +1596,37 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Hydrocarbures légers*</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2000-08-16</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1512']</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Terminée en 1992</t>
+        </is>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1027,6 +1662,58 @@
         </is>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>&lt;= C</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Benzène,
+Éthylbenzène,
+Hydrocarbures pétroliers C10 à C50,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2015-05-15</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=8147']</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>8147</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Terminée en 2012</t>
+        </is>
+      </c>
+      <c r="Q16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1067,6 +1754,48 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>&gt; RESC</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>&gt; RESC</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2012-04-17</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=8914']</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>8914</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Terminée en 2008</t>
+        </is>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1104,6 +1833,43 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>&lt;= A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Éthylbenzène (pot),
+Hydrocarbures aromatiques polycycliques*,
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2005-06-17</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=6585']</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>6585</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Terminée en 2005</t>
+        </is>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1141,6 +1907,41 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2005-09-08</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1549']</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Terminée en 1996</t>
+        </is>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1178,6 +1979,44 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Cuivre (Cu),
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50,
+Zinc (Zn)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2016-10-25</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=10653']</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>10653</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Non débutée</t>
+        </is>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1215,6 +2054,39 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2017-01-04</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1495']</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1495</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Non nécessaire</t>
+        </is>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1252,6 +2124,40 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Hydrocarbures aromatiques monocycliques * (pot),
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures légers*,
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2002-10-23</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1554']</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1554</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Terminée en 2001</t>
+        </is>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1289,6 +2195,40 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Biphényles polychlorés (BPC),
+Cuivre (Cu),
+Hydrocarbures pétroliers C10 à C50,
+Nickel (Ni)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2000-08-16</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1528']</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1528</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Terminée en 1993</t>
+        </is>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1326,6 +2266,37 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>&gt; RESC</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=12777']</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>12777</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Non débutée</t>
+        </is>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1363,6 +2334,45 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylène glycol,
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2011-08-11</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1489']</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1489</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Non débutée</t>
+        </is>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1400,6 +2410,51 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>&gt; RESC</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>&lt;= C</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Hydrocarbures aromatiques monocycliques * (pot),
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Benzène</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2015-05-25</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=9180']</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>9180</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Initiée</t>
+        </is>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1437,6 +2492,37 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2001-07-18</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=4697']</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Non débutée</t>
+        </is>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1474,6 +2560,42 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Plage A-B</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Hydrocarbures aromatiques polycycliques*,
+Produits pétroliers*</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2009-03-31</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=7972']</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7972</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Terminée en 2007</t>
+        </is>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1511,6 +2633,46 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>&lt;= C</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2009-09-11</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=8522']</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>8522</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Terminée en 2009</t>
+        </is>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1548,6 +2710,43 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Benzène,
+Benzo(a)pyrène,
+Dichloro-1,2 éthane,
+Éthylbenzène,
+Manganèse (Mn),
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2016-05-12</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=8904']</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>8904</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Terminée en 2011</t>
+        </is>
+      </c>
+      <c r="Q30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1585,6 +2784,59 @@
       <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Biphényles polychlorés (BPC),
+Hydrocarbures pétroliers C10 à C50; Arsenic (As),
+Cadmium (Cd),
+Cobalt (Co),
+Cuivre (Cu),
+Hydrocarbures pétroliers C10 à C50,
+Manganèse (Mn),
+Molybdène (Mo),
+Soufre total (S),
+Zinc (Zn)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Aluminium (Al),
+Cobalt (Co),
+Cuivre (Cu),
+Nickel (Ni),
+Sélénium (Se),
+Zinc (Zn)</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2011-08-11</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1533', 'https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=9188']</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1533, 9188</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Terminée en 1993 | Terminée en 2007</t>
+        </is>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1622,6 +2874,37 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2000-08-16</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1496']</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1496</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Terminée en 1993</t>
+        </is>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1659,6 +2942,47 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>&lt;= A</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Naphtalène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Éthylbenzène,
+Toluène</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2008-06-23</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=7913']</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>7913</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Terminée en 2007</t>
+        </is>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1696,6 +3020,53 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>&lt;= B</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Benzène (pot),
+Éthylbenzène (pot),
+Hydrocarbures aromatiques polycycliques*,
+Hydrocarbures pétroliers C10 à C50,
+Toluène (pot),
+Xylènes (o,m,p) (pot)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Benzène,
+Éthylbenzène,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=6909']</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>6909</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Terminée en 2005</t>
+        </is>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1733,6 +3104,52 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>&gt; C</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Benzène (seringue),
+Éthylbenzène (seringue),
+Méthyl naphtalènes (chacun),
+Toluène (seringue),
+Trichloro-1,1,2 éthane (seringue),
+Xylènes (o,m,p) (seringue)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Éthylbenzène,
+Toluène,
+Xylènes (o,m,p)</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=12961']</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>12961</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Initiée</t>
+        </is>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1768,6 +3185,39 @@
         </is>
       </c>
       <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Biphényles polychlorés (BPC),
+Huiles et graisses totales*,
+Hydrocarbures pétroliers C10 à C50</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2005-09-08</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>['https://www.environnement.gouv.qc.ca/sol/terrains/terrains-contamines/fiche.asp?no=1556']</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Terminée en 1991</t>
+        </is>
+      </c>
+      <c r="Q36" t="b">
         <v>1</v>
       </c>
     </row>
